--- a/Algorithm/Test results/tests version 3.xlsx
+++ b/Algorithm/Test results/tests version 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t xml:space="preserve">Testcase: 0 </t>
   </si>
@@ -150,12 +150,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -183,12 +180,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -203,7 +197,8 @@
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -259,9 +254,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -333,9 +351,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -407,9 +448,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -481,9 +545,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,9 +642,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,14 +732,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="108616208"/>
-        <c:axId val="162034368"/>
+        <c:axId val="208936944"/>
+        <c:axId val="208937504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="108616208"/>
+        <c:axId val="208936944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +752,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -656,13 +763,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of concrete services</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> of concrete services</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -680,12 +782,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -696,6 +795,479 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208937504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208937504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208936944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Experiment 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$D$28:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$28:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2012077000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6364169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2868402999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.884088999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.501382700000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.678350500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$D$28:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$28:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.40560259999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.624004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5428163000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8532247000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0980454999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.482931300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="230883968"/>
+        <c:axId val="226168512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="230883968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -733,7 +1305,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162034368"/>
+        <c:crossAx val="226168512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +1313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162034368"/>
+        <c:axId val="226168512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,62 +1333,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -848,7 +1364,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108616208"/>
+        <c:crossAx val="230883968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -893,7 +1409,439 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Experiment 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$D$36:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$36:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>327680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2488320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5493488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11010048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20470320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$D$36:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>891000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1430000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2676960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7603200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="233504768"/>
+        <c:axId val="233510368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="233504768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233510368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233510368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233504768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -969,8 +1917,1059 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1499,6 +3498,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1376362</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1357312</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1770,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G33"/>
+  <dimension ref="A3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,6 +4211,83 @@
         <v>20.482931300000001</v>
       </c>
     </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>327680</v>
+      </c>
+      <c r="F36">
+        <v>89600</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>990000</v>
+      </c>
+      <c r="F37">
+        <v>193536</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>2488320</v>
+      </c>
+      <c r="F38">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>80</v>
+      </c>
+      <c r="E39">
+        <v>5493488</v>
+      </c>
+      <c r="F39">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <v>11010048</v>
+      </c>
+      <c r="F40">
+        <v>2676960</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>20470320</v>
+      </c>
+      <c r="F41">
+        <v>7603200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Algorithm/Test results/tests version 3.xlsx
+++ b/Algorithm/Test results/tests version 3.xlsx
@@ -150,7 +150,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -160,7 +160,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" b="0"/>
               <a:t>Experiment 1</a:t>
             </a:r>
           </a:p>
@@ -180,7 +180,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -734,12 +734,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="208936944"/>
-        <c:axId val="208937504"/>
+        <c:axId val="220272672"/>
+        <c:axId val="220273232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="208936944"/>
+        <c:axId val="220272672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +762,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" b="0"/>
                   <a:t>Number of concrete services</a:t>
                 </a:r>
               </a:p>
@@ -829,7 +829,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208937504"/>
+        <c:crossAx val="220273232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208937504"/>
+        <c:axId val="220273232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,8 +874,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="fr-FR" b="0"/>
+                  <a:t>Processing time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -935,7 +935,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208936944"/>
+        <c:crossAx val="220272672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1008,7 +1008,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1258,16 +1258,77 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="230883968"/>
-        <c:axId val="226168512"/>
+        <c:axId val="124471600"/>
+        <c:axId val="124469920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="230883968"/>
+        <c:axId val="124471600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of concrete</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> services</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1305,7 +1366,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226168512"/>
+        <c:crossAx val="124469920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1313,7 +1374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226168512"/>
+        <c:axId val="124469920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,6 +1394,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Porcessing  time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1364,7 +1481,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230883968"/>
+        <c:crossAx val="124471600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1377,7 +1494,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1440,7 +1557,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1480,7 +1597,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Experiment 3</a:t>
+              <a:t>Experiment 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1690,16 +1807,72 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="233504768"/>
-        <c:axId val="233510368"/>
+        <c:axId val="252973216"/>
+        <c:axId val="252973776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="233504768"/>
+        <c:axId val="252973216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of concrete services</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1737,7 +1910,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233510368"/>
+        <c:crossAx val="252973776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,7 +1918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233510368"/>
+        <c:axId val="252973776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,6 +1938,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of rewritings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1796,7 +2025,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233504768"/>
+        <c:crossAx val="252973216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,7 +2038,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1872,7 +2101,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3831,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4290,7 +4519,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Algorithm/Test results/tests version 3.xlsx
+++ b/Algorithm/Test results/tests version 3.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t xml:space="preserve">Testcase: 0 </t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>Test 2</t>
+  </si>
+  <si>
+    <t>Traditional approach</t>
+  </si>
+  <si>
+    <t>Preferences-guided approach</t>
   </si>
 </sst>
 </file>
@@ -734,12 +741,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="220272672"/>
-        <c:axId val="220273232"/>
+        <c:axId val="114325712"/>
+        <c:axId val="114326272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="220272672"/>
+        <c:axId val="114325712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +836,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220273232"/>
+        <c:crossAx val="114326272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220273232"/>
+        <c:axId val="114326272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +942,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220272672"/>
+        <c:crossAx val="114325712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,11 +1265,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="124471600"/>
-        <c:axId val="124469920"/>
+        <c:axId val="114329632"/>
+        <c:axId val="114330192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124471600"/>
+        <c:axId val="114329632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1373,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124469920"/>
+        <c:crossAx val="114330192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1374,7 +1381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124469920"/>
+        <c:axId val="114330192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1488,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124471600"/>
+        <c:crossAx val="114329632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1807,11 +1814,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="252973216"/>
-        <c:axId val="252973776"/>
+        <c:axId val="204887088"/>
+        <c:axId val="204887648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252973216"/>
+        <c:axId val="204887088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1917,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252973776"/>
+        <c:crossAx val="204887648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,7 +1925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252973776"/>
+        <c:axId val="204887648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2032,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252973216"/>
+        <c:crossAx val="204887088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,6 +2109,1112 @@
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42120269999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73320470000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8252117000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8252117000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6564619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.163297200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preferences-guided approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17160110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18720120000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70200450000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0920069999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9812126999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5224354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="206629168"/>
+        <c:axId val="206628608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="206629168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of concrete</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> services</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206628608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206628608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206629168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Integration cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan2!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan2!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>196608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>594000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1492992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3296092.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6606028.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12282192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan2!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preferences-guided approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan2!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan2!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116121.59999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>891000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>858000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1606176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4561920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="259493904"/>
+        <c:axId val="259495024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="259493904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> concrete services</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259495024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="259495024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of rewritings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259493904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2226,6 +3339,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
   <cs:axisTitle>
@@ -3347,6 +4540,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3787,6 +6012,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4060,8 +6350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F41" sqref="E36:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,4 +6812,190 @@
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>0.42120269999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.17160110000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>0.73320470000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>1.8252117000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.70200450000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>1.8252117000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.0920069999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>9.6564619</v>
+      </c>
+      <c r="C6">
+        <v>1.9812126999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>15.163297200000001</v>
+      </c>
+      <c r="C7">
+        <v>5.5224354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <f>327680*0.6</f>
+        <v>196608</v>
+      </c>
+      <c r="C10">
+        <f>89600*0.6</f>
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <f>990000*0.6</f>
+        <v>594000</v>
+      </c>
+      <c r="C11">
+        <f>193536*0.6</f>
+        <v>116121.59999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <f>2488320*0.6</f>
+        <v>1492992</v>
+      </c>
+      <c r="C12">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <f>5493488*0.6</f>
+        <v>3296092.8</v>
+      </c>
+      <c r="C13">
+        <f>1430000*0.6</f>
+        <v>858000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <f>11010048*0.6</f>
+        <v>6606028.7999999998</v>
+      </c>
+      <c r="C14">
+        <f>2676960*0.6</f>
+        <v>1606176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <f>20470320*0.6</f>
+        <v>12282192</v>
+      </c>
+      <c r="C15">
+        <f>7603200*0.6</f>
+        <v>4561920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithm/Test results/tests version 3.xlsx
+++ b/Algorithm/Test results/tests version 3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t xml:space="preserve">Testcase: 0 </t>
   </si>
@@ -173,7 +173,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -741,12 +740,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="114325712"/>
-        <c:axId val="114326272"/>
+        <c:axId val="206631104"/>
+        <c:axId val="113576576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="114325712"/>
+        <c:axId val="206631104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +774,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -836,7 +834,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114326272"/>
+        <c:crossAx val="113576576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -844,7 +842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114326272"/>
+        <c:axId val="113576576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -942,7 +939,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114325712"/>
+        <c:crossAx val="206631104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -956,7 +953,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1060,7 +1056,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1265,11 +1260,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114329632"/>
-        <c:axId val="114330192"/>
+        <c:axId val="210509392"/>
+        <c:axId val="210503792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114329632"/>
+        <c:axId val="210509392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1301,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1373,7 +1367,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114330192"/>
+        <c:crossAx val="210503792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1381,7 +1375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114330192"/>
+        <c:axId val="210503792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1421,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1488,7 +1481,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114329632"/>
+        <c:crossAx val="210509392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,7 +1495,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1609,7 +1601,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1814,11 +1805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="204887088"/>
-        <c:axId val="204887648"/>
+        <c:axId val="206515344"/>
+        <c:axId val="206515904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204887088"/>
+        <c:axId val="206515344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1917,7 +1907,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204887648"/>
+        <c:crossAx val="206515904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1925,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204887648"/>
+        <c:axId val="206515904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1961,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2032,7 +2021,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204887088"/>
+        <c:crossAx val="206515344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,7 +2035,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2362,11 +2350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="206629168"/>
-        <c:axId val="206628608"/>
+        <c:axId val="206519264"/>
+        <c:axId val="206519824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206629168"/>
+        <c:axId val="206519264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2458,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206628608"/>
+        <c:crossAx val="206519824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,7 +2466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206628608"/>
+        <c:axId val="206519824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2573,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206629168"/>
+        <c:crossAx val="206519264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,11 +2903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259493904"/>
-        <c:axId val="259495024"/>
+        <c:axId val="249190400"/>
+        <c:axId val="249190960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259493904"/>
+        <c:axId val="249190400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +3011,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259495024"/>
+        <c:crossAx val="249190960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3031,7 +3019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259495024"/>
+        <c:axId val="249190960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +3126,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259493904"/>
+        <c:crossAx val="249190400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3182,6 +3170,443 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage of filtered services</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan2!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preferences-guided approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan2!$B$20:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan2!$C$20:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="206626064"/>
+        <c:axId val="206630544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="206626064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of concrete services</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206630544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206630544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206626064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3419,6 +3844,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
   <cs:axisTitle>
@@ -5572,6 +6037,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6082,6 +7050,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6816,10 +7814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6994,6 +7992,62 @@
         <v>4561920</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Algorithm/Test results/tests version 3.xlsx
+++ b/Algorithm/Test results/tests version 3.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Reusability" sheetId="3" r:id="rId3"/>
+    <sheet name="Rewriting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="68">
   <si>
     <t xml:space="preserve">Testcase: 0 </t>
   </si>
@@ -74,6 +76,162 @@
   <si>
     <t>Preferences-guided approach</t>
   </si>
+  <si>
+    <t xml:space="preserve">Testcase: 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase: 49 </t>
+  </si>
+  <si>
+    <t>Results from queries with 2 abstract services,</t>
+  </si>
+  <si>
+    <t>Results from queries with 3 abstract services,</t>
+  </si>
+  <si>
+    <t>Results from queries with 4 abstract services,</t>
+  </si>
+  <si>
+    <t>Results from queries with 5 abstract services,</t>
+  </si>
+  <si>
+    <t>Number of abstract services</t>
+  </si>
+  <si>
+    <t>Reusing</t>
+  </si>
+  <si>
+    <t>Rewriting</t>
+  </si>
 </sst>
 </file>
 
@@ -96,12 +254,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,15 +280,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,7 +366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -741,12 +933,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="114325712"/>
-        <c:axId val="114326272"/>
+        <c:axId val="108925808"/>
+        <c:axId val="108926368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="114325712"/>
+        <c:axId val="108925808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -836,7 +1027,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114326272"/>
+        <c:crossAx val="108926368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -844,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114326272"/>
+        <c:axId val="108926368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +1078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -942,7 +1132,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114325712"/>
+        <c:crossAx val="108925808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -956,7 +1146,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1060,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1265,11 +1453,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114329632"/>
-        <c:axId val="114330192"/>
+        <c:axId val="108378992"/>
+        <c:axId val="574266352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114329632"/>
+        <c:axId val="108378992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1494,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1373,7 +1560,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114330192"/>
+        <c:crossAx val="574266352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1381,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114330192"/>
+        <c:axId val="574266352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1614,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1488,7 +1674,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114329632"/>
+        <c:crossAx val="108378992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,7 +1688,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1609,7 +1794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1814,11 +1998,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="204887088"/>
-        <c:axId val="204887648"/>
+        <c:axId val="574269712"/>
+        <c:axId val="574270272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204887088"/>
+        <c:axId val="574269712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +2034,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1917,7 +2100,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204887648"/>
+        <c:crossAx val="574270272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1925,7 +2108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204887648"/>
+        <c:axId val="574270272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +2154,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2032,7 +2214,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204887088"/>
+        <c:crossAx val="574269712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,7 +2228,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2153,7 +2334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2362,11 +2542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="206629168"/>
-        <c:axId val="206628608"/>
+        <c:axId val="574273632"/>
+        <c:axId val="574274192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206629168"/>
+        <c:axId val="574273632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2583,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2470,7 +2649,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206628608"/>
+        <c:crossAx val="574274192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,7 +2657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206628608"/>
+        <c:axId val="574274192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2703,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2585,7 +2763,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206629168"/>
+        <c:crossAx val="574273632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2599,7 +2777,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2706,7 +2883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2915,11 +3091,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259493904"/>
-        <c:axId val="259495024"/>
+        <c:axId val="574277552"/>
+        <c:axId val="574278112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259493904"/>
+        <c:axId val="574277552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,6 +3127,528 @@
                 <a:r>
                   <a:rPr lang="fr-FR" baseline="0"/>
                   <a:t> concrete services</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574278112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574278112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of rewritings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574277552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Processing time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reusability!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reusing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reusability!$B$54:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reusability!$B$55:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0920070000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9920320000000013E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6160360000000013E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3040340000000009E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reusability!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewriting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reusability!$B$54:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reusability!$B$56:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5520420000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5600099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4960160000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16598506399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="670248240"/>
+        <c:axId val="671790720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="670248240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> abstract services (Query size)</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -3023,7 +3721,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259495024"/>
+        <c:crossAx val="671790720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3031,7 +3729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259495024"/>
+        <c:axId val="671790720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,8 +3770,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Number of rewritings</a:t>
+                  <a:t>Average</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3138,7 +3841,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259493904"/>
+        <c:crossAx val="670248240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3214,7 +3917,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3419,6 +4122,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
   <cs:axisTitle>
@@ -5572,6 +6315,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6077,6 +7323,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6818,8 +8099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6998,4 +8279,2779 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.24960160000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f>AVERAGE(B2:B51)</f>
+        <v>1.0920070000000002E-2</v>
+      </c>
+      <c r="E52" s="2">
+        <f>AVERAGE(E2:E51)</f>
+        <v>4.9920320000000013E-3</v>
+      </c>
+      <c r="H52" s="2">
+        <f>AVERAGE(H2:H51)</f>
+        <v>5.6160360000000013E-3</v>
+      </c>
+      <c r="K52" s="2">
+        <f>AVERAGE(K2:K51)</f>
+        <v>5.3040340000000009E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <f>$B$52</f>
+        <v>1.0920070000000002E-2</v>
+      </c>
+      <c r="C55">
+        <f>$E$52</f>
+        <v>4.9920320000000013E-3</v>
+      </c>
+      <c r="D55">
+        <f>$H$52</f>
+        <v>5.6160360000000013E-3</v>
+      </c>
+      <c r="E55">
+        <f>$K$52</f>
+        <v>5.3040340000000009E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <f>Rewriting!$B$52</f>
+        <v>6.5520420000000001E-3</v>
+      </c>
+      <c r="C56">
+        <f>Rewriting!$E$52</f>
+        <v>1.5600099999999999E-3</v>
+      </c>
+      <c r="D56">
+        <f>Rewriting!$H$52</f>
+        <v>2.4960160000000002E-3</v>
+      </c>
+      <c r="E56">
+        <f>Rewriting!$K$52</f>
+        <v>0.16598506399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.20280129999999999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0.24960160000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>0.17160110000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>0.2340015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>0.2964019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>0.2184014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>0.17160110000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>0.2184014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>0.2184014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37">
+        <v>0.17160110000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40">
+        <v>0.2184014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50">
+        <v>0.18720120000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51">
+        <v>0.20280129999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f>AVERAGE(B2:B51)</f>
+        <v>6.5520420000000001E-3</v>
+      </c>
+      <c r="E52" s="2">
+        <f>AVERAGE(E2:E51)</f>
+        <v>1.5600099999999999E-3</v>
+      </c>
+      <c r="H52" s="2">
+        <f>AVERAGE(H2:H51)</f>
+        <v>2.4960160000000002E-3</v>
+      </c>
+      <c r="K52" s="2">
+        <f>AVERAGE(K2:K51)</f>
+        <v>0.16598506399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>